--- a/Trappist Beers List.xlsx
+++ b/Trappist Beers List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ's Ultra Machine\Desktop\Play\Brew\Other info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ's Ultra Machine\Desktop\Trappist-Beer-List-master\Trappist-Beer-List-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C4064-75B7-41E3-98ED-E6B28368C9AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E85CE3-0F67-4099-AFC6-BDB237BC0132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
   <si>
     <t>Beer</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>First English Trappist beer</t>
+  </si>
+  <si>
+    <t>NEIPA</t>
+  </si>
+  <si>
+    <t>Citra, Mosaic, Amarillo, Simcoe</t>
+  </si>
+  <si>
+    <t>First Trappist beer packaged in cans</t>
+  </si>
+  <si>
+    <t>Monks' IPA</t>
   </si>
 </sst>
 </file>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1641,7 +1653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>108</v>
       </c>
@@ -1662,71 +1674,77 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>57</v>
+      <c r="B44" s="1">
+        <v>2019</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E44">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="F44" t="s">
         <v>27</v>
       </c>
-      <c r="I44" t="s">
-        <v>73</v>
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>8.5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>5.3</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>18</v>
-      </c>
-      <c r="J45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46">
-        <v>7.3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>19</v>
       </c>
       <c r="J46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -1736,40 +1754,34 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
+      <c r="C48" t="s">
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
         <v>70</v>
       </c>
-      <c r="M48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>8.3000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -1780,16 +1792,19 @@
       <c r="J49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>10.199999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -1801,37 +1816,57 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>20</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="1">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
         <v>2018</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>10</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>21</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>10</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Trappist Beers List.xlsx
+++ b/Trappist Beers List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ's Ultra Machine\Desktop\Trappist-Beer-List-master\Trappist-Beer-List-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ's Ultra Machine\Desktop\Play\Brew\Other info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E85CE3-0F67-4099-AFC6-BDB237BC0132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA775918-655E-412A-9720-1108291F5628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35400" yWindow="345" windowWidth="19035" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
   <si>
     <t>Beer</t>
   </si>
@@ -402,16 +402,19 @@
     <t>First English Trappist beer</t>
   </si>
   <si>
-    <t>NEIPA</t>
-  </si>
-  <si>
-    <t>Citra, Mosaic, Amarillo, Simcoe</t>
-  </si>
-  <si>
-    <t>First Trappist beer packaged in cans</t>
-  </si>
-  <si>
-    <t>Monks' IPA</t>
+    <t>The Monkster Mash</t>
+  </si>
+  <si>
+    <t>Pumpkin Ale</t>
+  </si>
+  <si>
+    <t>pumpkin, spice</t>
+  </si>
+  <si>
+    <t>Seasonal, canned</t>
+  </si>
+  <si>
+    <t>Aged in chardonnay barrels</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1652,6 +1655,9 @@
       <c r="I42" t="s">
         <v>112</v>
       </c>
+      <c r="M42" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -1678,22 +1684,25 @@
         <v>2019</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="F44" t="s">
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
+        <v>127</v>
       </c>
       <c r="M44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
